--- a/ChatBot Generate Data/Data/account.xlsx
+++ b/ChatBot Generate Data/Data/account.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\ChatBot\ChatBot Generate Data\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Chatbot Release\ChatBot Generate Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEAFE48-F172-4DF1-B010-27203348BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1CB373-6B83-45E0-9228-E5EEE99BD7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="account" sheetId="1" r:id="rId1"/>
+    <sheet name="users.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Username</t>
   </si>
@@ -28,40 +28,148 @@
     <t>Password</t>
   </si>
   <si>
-    <t>user1@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user2@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user3@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user4@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user5@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user6@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user7@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user8@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user9@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user10@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user11@4mbnlf.onmicrosoft.com</t>
-  </si>
-  <si>
-    <t>user12@4mbnlf.onmicrosoft.com</t>
+    <t>chrisgreen@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris1green1@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris2green2@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris3green3@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris4green4@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris5green5@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris6green6@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris7green7@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris8green8@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris9green9@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris10green10@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris11green11@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris12green12@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris13green13@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris14green14@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris15green15@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris16green16@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris17green17@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris18green18@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris19green19@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris20green20@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris21green21@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris22green22@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris23green23@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris24green24@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris25green25@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris26green26@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris27green27@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris28green28@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris29green29@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris30green30@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris31green31@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris32green32@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris33green33@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris34green34@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris35green35@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris36green36@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris37green37@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris38green38@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris39green39@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris40green40@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris41green41@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris42green42@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris43green43@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris44green44@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris45green45@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris46green46@4mbnlf.onmicrosoft.com</t>
+  </si>
+  <si>
+    <t>chris47green47@4mbnlf.onmicrosoft.com</t>
   </si>
   <si>
     <t>aA1593578800</t>
@@ -71,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -203,14 +311,6 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="163"/>
@@ -519,7 +619,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -562,13 +662,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -603,7 +701,6 @@
     <cellStyle name="Ghi chú" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Kiểm tra Ô" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Ô được Nối kết" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Siêu kết nối" xfId="42" builtinId="8"/>
     <cellStyle name="Tiêu đề" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Tính toán" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Tổng" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -923,16 +1020,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="37.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -944,11 +1040,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -956,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -964,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -972,7 +1068,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -980,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -988,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -996,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -1004,7 +1100,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -1012,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -1020,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -1028,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1036,14 +1132,299 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>